--- a/Assets/Data/Data_Item.xlsx
+++ b/Assets/Data/Data_Item.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exhaustion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooldown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -468,7 +476,7 @@
     <col min="2" max="4" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -502,8 +510,14 @@
       <c r="K1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -537,8 +551,14 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -572,8 +592,14 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>50</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -607,8 +633,14 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>50</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -642,8 +674,14 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>50</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -677,8 +715,14 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>50</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -712,8 +756,14 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>50</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -747,8 +797,14 @@
       <c r="K8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>30</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -782,8 +838,14 @@
       <c r="K9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -817,8 +879,14 @@
       <c r="K10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>30</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -852,8 +920,14 @@
       <c r="K11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>30</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -887,8 +961,14 @@
       <c r="K12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>30</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -922,8 +1002,14 @@
       <c r="K13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>30</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10000</v>
       </c>
@@ -957,8 +1043,14 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10001</v>
       </c>
@@ -990,6 +1082,12 @@
         <v>20</v>
       </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Data_Item.xlsx
+++ b/Assets/Data/Data_Item.xlsx
@@ -467,7 +467,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -540,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>500</v>
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>500</v>
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>500</v>
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>500</v>
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>500</v>
@@ -745,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>600</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>100</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>100</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>100</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>100</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>100</v>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>200</v>
